--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value238.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value238.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.3540464346863032</v>
+        <v>1.175147294998169</v>
       </c>
       <c r="B1">
-        <v>0.3712395836733556</v>
+        <v>2.15348744392395</v>
       </c>
       <c r="C1">
-        <v>0.4160296717886312</v>
+        <v>3.577345371246338</v>
       </c>
       <c r="D1">
-        <v>0.6409510994066413</v>
+        <v>3.44361686706543</v>
       </c>
       <c r="E1">
-        <v>1.777894673217388</v>
+        <v>1.16057288646698</v>
       </c>
     </row>
   </sheetData>
